--- a/uniqorn-frontend/public/data/Ultimate_Uniqorn_Leaderboard_Master.xlsx
+++ b/uniqorn-frontend/public/data/Ultimate_Uniqorn_Leaderboard_Master.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C115"/>
+  <dimension ref="A1:C219"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,196 +453,196 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Nikola</t>
+          <t>Hakeem</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Jokić</t>
+          <t>Olajuwon</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>11</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Scottie</t>
+          <t>Kareem</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Barnes</t>
+          <t>Abdul-Jabbar</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Victor</t>
+          <t>Michael</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Wembanyama</t>
+          <t>Jordan</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>9</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Cade</t>
+          <t>David</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Cunningham</t>
+          <t>Robinson</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Tyrese</t>
+          <t>Magic</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Maxey</t>
+          <t>Johnson</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Alperen</t>
+          <t>John</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Sengun</t>
+          <t>Stockton</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Shai</t>
+          <t>Ben</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Gilgeous-Alexander</t>
+          <t>Wallace</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Kawhi</t>
+          <t>Marcus</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Leonard</t>
+          <t>Camby</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Luka</t>
+          <t>Lafayette</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Dončić</t>
+          <t>Lever</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Derrick</t>
+          <t>Anthony</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>Davis</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Jalen</t>
+          <t>Nikola</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Johnson</t>
+          <t>Jokic</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Jusuf</t>
+          <t>Andrei</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Nurkić</t>
+          <t>Kirilenko</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Chet</t>
+          <t>Russell</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Holmgren</t>
+          <t>Westbrook</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15">
@@ -657,528 +657,528 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Jalen</t>
+          <t>Charles</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Suggs</t>
+          <t>Barkley</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Anthony</t>
+          <t>Draymond</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Edwards</t>
+          <t>Green</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Russell</t>
+          <t>Chris</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Westbrook</t>
+          <t>Webber</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Jamal</t>
+          <t>Vlade</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Murray</t>
+          <t>Divac</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Donovan</t>
+          <t>Wes</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Clingan</t>
+          <t>Unseld</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Jaren</t>
+          <t>DeMarcus</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Jackson Jr.</t>
+          <t>Cousins</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Giannis</t>
+          <t>Larry</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Antetokounmpo</t>
+          <t>Bird</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Kel'el</t>
+          <t>Karl</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Ware</t>
+          <t>Malone</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Dyson</t>
+          <t>Bill</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Daniels</t>
+          <t>Walton</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Rudy</t>
+          <t>Jason</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Gobert</t>
+          <t>Kidd</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Alex</t>
+          <t>Shaquille</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Sarr</t>
+          <t>O'Neal</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Lauri</t>
+          <t>Tree</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Markkanen</t>
+          <t>Rollins</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Kevin</t>
+          <t>Doc</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Porter Jr.</t>
+          <t>Rivers</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>LaMelo</t>
+          <t>Mark</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Ball</t>
+          <t>Eaton</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Craig</t>
+          <t>Allen</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Porter Jr.</t>
+          <t>Iverson</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Ausar</t>
+          <t>Micheal</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Thompson</t>
+          <t>Ray Richardson</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Austin</t>
+          <t>Alvan</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Reaves</t>
+          <t>Adams</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Ryan</t>
+          <t>Alvin</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Kalkbrenner</t>
+          <t>Robertson</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Mikal</t>
+          <t>Larry</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Bridges</t>
+          <t>Steele</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Josh</t>
+          <t>Nate</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Hart</t>
+          <t>McMillan</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Zach</t>
+          <t>Gerald</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Edey</t>
+          <t>Wallace</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Anthony</t>
+          <t>Giannis</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>Antetokounmpo</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Yves</t>
+          <t>Bob</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Missi</t>
+          <t>McAdoo</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Neemias</t>
+          <t>Clyde</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Queta</t>
+          <t>Drexler</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Jalen</t>
+          <t>George</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Duren</t>
+          <t>McGinnis</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>VJ</t>
+          <t>Dan</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Edgecombe</t>
+          <t>Roundfield</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Karl-Anthony</t>
+          <t>Luka</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Towns</t>
+          <t>Doncic</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Mouhamed</t>
+          <t>Dwyane</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Gueye</t>
+          <t>Wade</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Oso</t>
+          <t>Dennis</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Ighodaro</t>
+          <t>Rodman</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Isaiah</t>
+          <t>Chris</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Collier</t>
+          <t>Paul</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Paolo</t>
+          <t>Bo</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Banchero</t>
+          <t>Outlaw</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Keegan</t>
+          <t>Sam</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Murray</t>
+          <t>Lacey</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Goga</t>
+          <t>Rajon</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Bitadze</t>
+          <t>Rondo</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Collin</t>
+          <t>Rick</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Murray-Boyles</t>
+          <t>Barry</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Kevin</t>
+          <t>Johnny</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Durant</t>
+          <t>Moore</t>
         </is>
       </c>
       <c r="C50" t="n">
@@ -1188,12 +1188,12 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Reed</t>
+          <t>Randy</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Sheppard</t>
+          <t>Smith</t>
         </is>
       </c>
       <c r="C51" t="n">
@@ -1203,12 +1203,12 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Mark</t>
+          <t>Ron</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Williams</t>
+          <t>Harper</t>
         </is>
       </c>
       <c r="C52" t="n">
@@ -1218,12 +1218,12 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Draymond</t>
+          <t>Joe</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Green</t>
+          <t>Barry Carroll</t>
         </is>
       </c>
       <c r="C53" t="n">
@@ -1233,12 +1233,12 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Derik</t>
+          <t>Scottie</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Queen</t>
+          <t>Pippen</t>
         </is>
       </c>
       <c r="C54" t="n">
@@ -1248,687 +1248,687 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Matas</t>
+          <t>Julius</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Buzelis</t>
+          <t>Erving</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Marcus</t>
+          <t>Shawn</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Smart</t>
+          <t>Bradley</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Luke</t>
+          <t>Sleepy</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Kornet</t>
+          <t>Floyd</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Aaron</t>
+          <t>Gus</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Nesmith</t>
+          <t>Williams</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Moses</t>
+          <t>Stephen</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Moody</t>
+          <t>Curry</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Peyton</t>
+          <t>T.R.</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Watson</t>
+          <t>Dunn</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Will</t>
+          <t>Terry</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Richard</t>
+          <t>Cummings</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Tre</t>
+          <t>Josh</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Jones</t>
+          <t>Smith</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Trae</t>
+          <t>Ennis</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Young</t>
+          <t>Whatley</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Steven</t>
+          <t>Mookie</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Adams</t>
+          <t>Blaylock</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Stephen</t>
+          <t>Ralph</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Curry</t>
+          <t>Sampson</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Sandro</t>
+          <t>Kevin</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Mamukelashvili</t>
+          <t>McHale</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>Patrick</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Reed</t>
+          <t>Ewing</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Moussa</t>
+          <t>Otis</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Diabaté</t>
+          <t>Birdsong</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>LeBron</t>
+          <t>Kevin</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>James</t>
+          <t>Porter</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Onyeka</t>
+          <t>Oliver</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Okongwu</t>
+          <t>Miller</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>OG</t>
+          <t>Nate</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Anunoby</t>
+          <t>Thurmond</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Nikola</t>
+          <t>Larry</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Vučević</t>
+          <t>Nance</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Nic</t>
+          <t>Nate</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Claxton</t>
+          <t>Archibald</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Myles</t>
+          <t>LeBron</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Turner</t>
+          <t>James</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>Myles</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>George</t>
+          <t>Turner</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Jordan</t>
+          <t>Lonnie</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Miller</t>
+          <t>Shelton</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Kyle</t>
+          <t>Moses</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Filipowski</t>
+          <t>Malone</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Daniss</t>
+          <t>George</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Jenkins</t>
+          <t>Johnson</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Drew</t>
+          <t>Joel</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Eubanks</t>
+          <t>Embiid</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Donte</t>
+          <t>Dikembe</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>DiVincenzo</t>
+          <t>Mutombo</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Donovan</t>
+          <t>Eddie</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Mitchell</t>
+          <t>Jordan</t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Dominick</t>
+          <t>Dwight</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Barlow</t>
+          <t>Howard</t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Devin</t>
+          <t>Baron</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Booker</t>
+          <t>Davis</t>
         </is>
       </c>
       <c r="C83" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Desmond</t>
+          <t>Antoine</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Bane</t>
+          <t>Walker</t>
         </is>
       </c>
       <c r="C84" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Deni</t>
+          <t>Darrell</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Avdija</t>
+          <t>Walker</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Cedric</t>
+          <t>Darius</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Coward</t>
+          <t>Miles</t>
         </is>
       </c>
       <c r="C86" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Dylan</t>
+          <t>Danny</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Harper</t>
+          <t>Manning</t>
         </is>
       </c>
       <c r="C87" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Cam</t>
+          <t>Dominique</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Thomas</t>
+          <t>Wilkins</t>
         </is>
       </c>
       <c r="C88" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Cam</t>
+          <t>Damian</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Spencer</t>
+          <t>Lillard</t>
         </is>
       </c>
       <c r="C89" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Brandon</t>
+          <t>Charles</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Williams</t>
+          <t>Jones</t>
         </is>
       </c>
       <c r="C90" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Bam</t>
+          <t>Artis</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Adebayo</t>
+          <t>Gilmore</t>
         </is>
       </c>
       <c r="C91" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Ariel</t>
+          <t>Andre</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Hukporti</t>
+          <t>Drummond</t>
         </is>
       </c>
       <c r="C92" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Anthony</t>
+          <t>Dirk</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>Nowitzki</t>
         </is>
       </c>
       <c r="C93" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Andre</t>
+          <t>Deron</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Drummond</t>
+          <t>Williams</t>
         </is>
       </c>
       <c r="C94" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Dylan</t>
+          <t>Elmore</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Cardwell</t>
+          <t>Smith</t>
         </is>
       </c>
       <c r="C95" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Evan</t>
+          <t>Elvin</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Mobley</t>
+          <t>Hayes</t>
         </is>
       </c>
       <c r="C96" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Kristaps</t>
+          <t>Benoit</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Porziņģis</t>
+          <t>Benjamin</t>
         </is>
       </c>
       <c r="C97" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Jarrett</t>
+          <t>Alonzo</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Allen</t>
+          <t>Mourning</t>
         </is>
       </c>
       <c r="C98" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Kris</t>
+          <t>Bobby</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Dunn</t>
+          <t>Jones</t>
         </is>
       </c>
       <c r="C99" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Keyonte</t>
+          <t>Paul</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>George</t>
+          <t>Westphal</t>
         </is>
       </c>
       <c r="C100" t="n">
@@ -1938,12 +1938,12 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Jrue</t>
+          <t>Quinn</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Holiday</t>
+          <t>Buckner</t>
         </is>
       </c>
       <c r="C101" t="n">
@@ -1953,12 +1953,12 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Josh</t>
+          <t>Paul</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Giddey</t>
+          <t>Pressey</t>
         </is>
       </c>
       <c r="C102" t="n">
@@ -1968,12 +1968,12 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Jeremiah</t>
+          <t>Paul</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Fears</t>
+          <t>Millsap</t>
         </is>
       </c>
       <c r="C103" t="n">
@@ -1983,12 +1983,12 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Jaylen</t>
+          <t>Pau</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Brown</t>
+          <t>Gasol</t>
         </is>
       </c>
       <c r="C104" t="n">
@@ -1998,12 +1998,12 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Jay</t>
+          <t>Bob</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Huff</t>
+          <t>Lanier</t>
         </is>
       </c>
       <c r="C105" t="n">
@@ -2013,12 +2013,12 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Jalen</t>
+          <t>Bob</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Smith</t>
+          <t>Dandridge</t>
         </is>
       </c>
       <c r="C106" t="n">
@@ -2028,12 +2028,12 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Gui</t>
+          <t>Nikola</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Santos</t>
+          <t>Jokić</t>
         </is>
       </c>
       <c r="C107" t="n">
@@ -2043,12 +2043,12 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Jalen</t>
+          <t>Otto</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Brunson</t>
+          <t>Moore</t>
         </is>
       </c>
       <c r="C108" t="n">
@@ -2058,12 +2058,12 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Jake</t>
+          <t>Boris</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>LaRavia</t>
+          <t>Diaw</t>
         </is>
       </c>
       <c r="C109" t="n">
@@ -2073,12 +2073,12 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Jahmai</t>
+          <t>Brandon</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Mashack</t>
+          <t>Roy</t>
         </is>
       </c>
       <c r="C110" t="n">
@@ -2088,12 +2088,12 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Jaden</t>
+          <t>Billy</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>McDaniels</t>
+          <t>Knight</t>
         </is>
       </c>
       <c r="C111" t="n">
@@ -2103,12 +2103,12 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Ja</t>
+          <t>Brook</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Morant</t>
+          <t>Lopez</t>
         </is>
       </c>
       <c r="C112" t="n">
@@ -2118,12 +2118,12 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Isaiah</t>
+          <t>Nicolas</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Hartenstein</t>
+          <t>Batum</t>
         </is>
       </c>
       <c r="C113" t="n">
@@ -2133,12 +2133,12 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Herbert</t>
+          <t>Nick</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Jones</t>
+          <t>Anderson</t>
         </is>
       </c>
       <c r="C114" t="n">
@@ -2148,15 +2148,1575 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Zach</t>
+          <t>Cade</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>LaVine</t>
+          <t>Cunningham</t>
         </is>
       </c>
       <c r="C115" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>Charles</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>Oakley</t>
+        </is>
+      </c>
+      <c r="C116" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>Charles</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>Smith</t>
+        </is>
+      </c>
+      <c r="C117" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>Charlie</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>Ward</t>
+        </is>
+      </c>
+      <c r="C118" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>Chris</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>Mullin</t>
+        </is>
+      </c>
+      <c r="C119" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>Monta</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>Ellis</t>
+        </is>
+      </c>
+      <c r="C120" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>Mike</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>Woodson</t>
+        </is>
+      </c>
+      <c r="C121" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>Mike</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>Gale</t>
+        </is>
+      </c>
+      <c r="C122" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>Ramon</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>Sessions</t>
+        </is>
+      </c>
+      <c r="C123" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>Eric</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>Bledsoe</t>
+        </is>
+      </c>
+      <c r="C124" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>Rich</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>Kelley</t>
+        </is>
+      </c>
+      <c r="C125" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>Sherman</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>Douglas</t>
+        </is>
+      </c>
+      <c r="C126" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>Tyrone</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>Corbin</t>
+        </is>
+      </c>
+      <c r="C127" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>Tyrese</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>Haliburton</t>
+        </is>
+      </c>
+      <c r="C128" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>Andray</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>Blatche</t>
+        </is>
+      </c>
+      <c r="C129" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>Trae</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>Young</t>
+        </is>
+      </c>
+      <c r="C130" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>Tom</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>Boerwinkle</t>
+        </is>
+      </c>
+      <c r="C131" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>Tim</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>Duncan</t>
+        </is>
+      </c>
+      <c r="C132" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>Terry</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>Tyler</t>
+        </is>
+      </c>
+      <c r="C133" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>Terrell</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>Brandon</t>
+        </is>
+      </c>
+      <c r="C134" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>Andre</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>Miller</t>
+        </is>
+      </c>
+      <c r="C135" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>Steve</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>Stipanovich</t>
+        </is>
+      </c>
+      <c r="C136" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>Antawn</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>Jamison</t>
+        </is>
+      </c>
+      <c r="C137" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>Anthony</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>Carter</t>
+        </is>
+      </c>
+      <c r="C138" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>Sidney</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>Lowe</t>
+        </is>
+      </c>
+      <c r="C139" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>Shawn</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>Marion</t>
+        </is>
+      </c>
+      <c r="C140" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>Robert</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>Covington</t>
+        </is>
+      </c>
+      <c r="C141" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>Antoine</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>Carr</t>
+        </is>
+      </c>
+      <c r="C142" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>Shai</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>Gilgeous-Alexander</t>
+        </is>
+      </c>
+      <c r="C143" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>Antonio</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>McDyess</t>
+        </is>
+      </c>
+      <c r="C144" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>Scott</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>Skiles</t>
+        </is>
+      </c>
+      <c r="C145" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>Sam</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>Bowie</t>
+        </is>
+      </c>
+      <c r="C146" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>Rudy</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>Gobert</t>
+        </is>
+      </c>
+      <c r="C147" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>Ronny</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>Turiaf</t>
+        </is>
+      </c>
+      <c r="C148" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>Ron</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>Lee</t>
+        </is>
+      </c>
+      <c r="C149" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>Ben</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>Simmons</t>
+        </is>
+      </c>
+      <c r="C150" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>Robert</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>Williams III</t>
+        </is>
+      </c>
+      <c r="C151" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>Clifford</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>Robinson</t>
+        </is>
+      </c>
+      <c r="C152" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>Robert</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>Parish</t>
+        </is>
+      </c>
+      <c r="C153" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>Robert</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>Pack</t>
+        </is>
+      </c>
+      <c r="C154" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>Clifford</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>Ray</t>
+        </is>
+      </c>
+      <c r="C155" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>Craig</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>Porter Jr.</t>
+        </is>
+      </c>
+      <c r="C156" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>Michael</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>Cooper</t>
+        </is>
+      </c>
+      <c r="C157" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>Eddie</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>Jones</t>
+        </is>
+      </c>
+      <c r="C158" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>John</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>Lucas</t>
+        </is>
+      </c>
+      <c r="C159" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>John</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>Drew</t>
+        </is>
+      </c>
+      <c r="C160" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>Alex</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+      <c r="C161" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>Joe</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>Johnson</t>
+        </is>
+      </c>
+      <c r="C162" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>Joakim</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>Noah</t>
+        </is>
+      </c>
+      <c r="C163" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>Jimmy</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>Butler</t>
+        </is>
+      </c>
+      <c r="C164" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>Jim</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>Price</t>
+        </is>
+      </c>
+      <c r="C165" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>Jim</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>McElroy</t>
+        </is>
+      </c>
+      <c r="C166" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>Jerry</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>Stackhouse</t>
+        </is>
+      </c>
+      <c r="C167" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>Jerome</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>Williams</t>
+        </is>
+      </c>
+      <c r="C168" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>Jeff</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>Green</t>
+        </is>
+      </c>
+      <c r="C169" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>Earl</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>Tatum</t>
+        </is>
+      </c>
+      <c r="C170" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>James</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>Johnson</t>
+        </is>
+      </c>
+      <c r="C171" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>Jamal</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>Murray</t>
+        </is>
+      </c>
+      <c r="C172" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>John</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>Wetzel</t>
+        </is>
+      </c>
+      <c r="C173" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>Jamaal</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>Tinsley</t>
+        </is>
+      </c>
+      <c r="C174" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>Jalen</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>Rose</t>
+        </is>
+      </c>
+      <c r="C175" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>Jalen</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>Johnson</t>
+        </is>
+      </c>
+      <c r="C176" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>Hot</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>Rod Williams</t>
+        </is>
+      </c>
+      <c r="C177" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>Hersey</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>Hawkins</t>
+        </is>
+      </c>
+      <c r="C178" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>Elfrid</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>Payton</t>
+        </is>
+      </c>
+      <c r="C179" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>Greg</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>Stiemsma</t>
+        </is>
+      </c>
+      <c r="C180" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>Greg</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>Ostertag</t>
+        </is>
+      </c>
+      <c r="C181" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>Elliot</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>Perry</t>
+        </is>
+      </c>
+      <c r="C182" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>Elton</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>Brand</t>
+        </is>
+      </c>
+      <c r="C183" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>George</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>Gervin</t>
+        </is>
+      </c>
+      <c r="C184" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>Garfield</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>Heard</t>
+        </is>
+      </c>
+      <c r="C185" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>Fred</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>VanVleet</t>
+        </is>
+      </c>
+      <c r="C186" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>John</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>Wall</t>
+        </is>
+      </c>
+      <c r="C187" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>Jrue</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>Holiday</t>
+        </is>
+      </c>
+      <c r="C188" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>Metta</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>World Peace</t>
+        </is>
+      </c>
+      <c r="C189" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>Larry</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>Kenon</t>
+        </is>
+      </c>
+      <c r="C190" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>Corey</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>Brewer</t>
+        </is>
+      </c>
+      <c r="C191" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>Mark</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>Davis</t>
+        </is>
+      </c>
+      <c r="C192" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>Chalmers</t>
+        </is>
+      </c>
+      <c r="C193" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>Eric</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>Snow</t>
+        </is>
+      </c>
+      <c r="C194" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>Marc</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>Gasol</t>
+        </is>
+      </c>
+      <c r="C195" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>Manute</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>Bol</t>
+        </is>
+      </c>
+      <c r="C196" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>Curtis</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>Perry</t>
+        </is>
+      </c>
+      <c r="C197" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>Lou</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>Williams</t>
+        </is>
+      </c>
+      <c r="C198" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>Dan</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>Issel</t>
+        </is>
+      </c>
+      <c r="C199" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>Lionel</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>Simmons</t>
+        </is>
+      </c>
+      <c r="C200" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>Lionel</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>Hollins</t>
+        </is>
+      </c>
+      <c r="C201" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>Larry</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>Smith</t>
+        </is>
+      </c>
+      <c r="C202" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>Darnell</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>Hillman</t>
+        </is>
+      </c>
+      <c r="C203" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>Darnell</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>Valentine</t>
+        </is>
+      </c>
+      <c r="C204" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>Dixon</t>
+        </is>
+      </c>
+      <c r="C205" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>Lamar</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>Odom</t>
+        </is>
+      </c>
+      <c r="C206" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>LaMarcus</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>Aldridge</t>
+        </is>
+      </c>
+      <c r="C207" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>Kyrie</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>Irving</t>
+        </is>
+      </c>
+      <c r="C208" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>Kobe</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>Bryant</t>
+        </is>
+      </c>
+      <c r="C209" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>Klay</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>Thompson</t>
+        </is>
+      </c>
+      <c r="C210" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>Dave</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>Cowens</t>
+        </is>
+      </c>
+      <c r="C211" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>Kevin</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>Johnson</t>
+        </is>
+      </c>
+      <c r="C212" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>Kendall</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>Gill</t>
+        </is>
+      </c>
+      <c r="C213" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>Kawhi</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>Leonard</t>
+        </is>
+      </c>
+      <c r="C214" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>Karl-Anthony</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>Towns</t>
+        </is>
+      </c>
+      <c r="C215" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>Derrick</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>Favors</t>
+        </is>
+      </c>
+      <c r="C216" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>Derrick</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
+      </c>
+      <c r="C217" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>Devin</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>Booker</t>
+        </is>
+      </c>
+      <c r="C218" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>Adonal</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>Foyle</t>
+        </is>
+      </c>
+      <c r="C219" t="n">
         <v>1</v>
       </c>
     </row>

--- a/uniqorn-frontend/public/data/Ultimate_Uniqorn_Leaderboard_Master.xlsx
+++ b/uniqorn-frontend/public/data/Ultimate_Uniqorn_Leaderboard_Master.xlsx
@@ -543,42 +543,42 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Ben</t>
+          <t>Nikola</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Wallace</t>
+          <t>Jokic</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Marcus</t>
+          <t>Ben</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Camby</t>
+          <t>Wallace</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Lafayette</t>
+          <t>Marcus</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Lever</t>
+          <t>Camby</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -588,12 +588,12 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Anthony</t>
+          <t>Lafayette</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>Lever</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -603,12 +603,12 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Nikola</t>
+          <t>Anthony</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Jokic</t>
+          <t>Davis</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -858,12 +858,12 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Mark</t>
+          <t>Larry</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Eaton</t>
+          <t>Steele</t>
         </is>
       </c>
       <c r="C29" t="n">
@@ -933,12 +933,12 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Larry</t>
+          <t>Luka</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Steele</t>
+          <t>Doncic</t>
         </is>
       </c>
       <c r="C34" t="n">
@@ -963,12 +963,12 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Gerald</t>
+          <t>Mark</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Wallace</t>
+          <t>Eaton</t>
         </is>
       </c>
       <c r="C36" t="n">
@@ -978,12 +978,12 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Giannis</t>
+          <t>Gerald</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Antetokounmpo</t>
+          <t>Wallace</t>
         </is>
       </c>
       <c r="C37" t="n">
@@ -993,12 +993,12 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Bob</t>
+          <t>Giannis</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>McAdoo</t>
+          <t>Antetokounmpo</t>
         </is>
       </c>
       <c r="C38" t="n">
@@ -1008,12 +1008,12 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Clyde</t>
+          <t>Bob</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Drexler</t>
+          <t>McAdoo</t>
         </is>
       </c>
       <c r="C39" t="n">
@@ -1023,16 +1023,16 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>George</t>
+          <t>Clyde</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>McGinnis</t>
+          <t>Drexler</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="41">
@@ -1053,12 +1053,12 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Luka</t>
+          <t>George</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Doncic</t>
+          <t>McGinnis</t>
         </is>
       </c>
       <c r="C42" t="n">
@@ -1758,12 +1758,12 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Damian</t>
+          <t>Charles</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Lillard</t>
+          <t>Jones</t>
         </is>
       </c>
       <c r="C89" t="n">
@@ -1773,12 +1773,12 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Charles</t>
+          <t>Damian</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Jones</t>
+          <t>Lillard</t>
         </is>
       </c>
       <c r="C90" t="n">
@@ -1938,12 +1938,12 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Quinn</t>
+          <t>Paul</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Buckner</t>
+          <t>Pressey</t>
         </is>
       </c>
       <c r="C101" t="n">
@@ -1953,12 +1953,12 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>Quinn</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Pressey</t>
+          <t>Buckner</t>
         </is>
       </c>
       <c r="C102" t="n">
@@ -2028,12 +2028,12 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Nikola</t>
+          <t>Brook</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Jokić</t>
+          <t>Lopez</t>
         </is>
       </c>
       <c r="C107" t="n">
@@ -2103,12 +2103,12 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Brook</t>
+          <t>Nicolas</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Lopez</t>
+          <t>Batum</t>
         </is>
       </c>
       <c r="C112" t="n">
@@ -2118,12 +2118,12 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Nicolas</t>
+          <t>Nick</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Batum</t>
+          <t>Anderson</t>
         </is>
       </c>
       <c r="C113" t="n">
@@ -2133,12 +2133,12 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Nick</t>
+          <t>Cade</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Anderson</t>
+          <t>Cunningham</t>
         </is>
       </c>
       <c r="C114" t="n">
@@ -2148,12 +2148,12 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Cade</t>
+          <t>Charles</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Cunningham</t>
+          <t>Oakley</t>
         </is>
       </c>
       <c r="C115" t="n">
@@ -2168,7 +2168,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Oakley</t>
+          <t>Smith</t>
         </is>
       </c>
       <c r="C116" t="n">
@@ -2178,12 +2178,12 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Charles</t>
+          <t>Moussa</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Smith</t>
+          <t>Diabate</t>
         </is>
       </c>
       <c r="C117" t="n">
